--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E288041-4EF4-47CE-A908-9877C315F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA3525-A298-47A2-80DF-94EB9CD9DFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hoge</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HOGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -455,6 +463,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E288041-4EF4-47CE-A908-9877C315F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A04B5-11A4-4F0B-A660-AEDA879917B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +443,14 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1">
+        <v>200</v>
+      </c>
+      <c r="E1">
+        <v>300</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -453,6 +459,12 @@
       </c>
       <c r="C2">
         <v>4</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA3525-A298-47A2-80DF-94EB9CD9DFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481761D8-13EF-4C22-99BD-0CB9FD44FD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>hoge</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -485,6 +489,28 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA3525-A298-47A2-80DF-94EB9CD9DFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18BE564-0BAA-46C9-9D66-AE2CC1C08812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>hoge</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +40,22 @@
   </si>
   <si>
     <t>TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +467,14 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,8 +484,14 @@
       <c r="C2">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -473,8 +501,14 @@
       <c r="C3">
         <v>30</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -483,6 +517,12 @@
       </c>
       <c r="C4">
         <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxs_s\work\Saito-Masaru\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807689F-584F-41FB-8A67-7AECA8BD15B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CCD4E-63A8-4F31-A528-A540BCAC6ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>hoge</t>
     <phoneticPr fontId="1"/>
@@ -44,30 +44,6 @@
   </si>
   <si>
     <t>FOO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EEE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FFF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -469,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,14 +455,8 @@
       <c r="C1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -496,14 +466,8 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -513,14 +477,8 @@
       <c r="C3">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -530,14 +488,8 @@
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>400</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -547,14 +499,8 @@
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>500</v>
-      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -563,12 +509,6 @@
       </c>
       <c r="C6">
         <v>400</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
